--- a/Code/Results/Cases/Case_1_179/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_179/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.813188250491379</v>
+        <v>0.910632418942356</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06792115989419045</v>
+        <v>0.0268843822672693</v>
       </c>
       <c r="E2">
-        <v>0.1838348395219471</v>
+        <v>0.4467350302404096</v>
       </c>
       <c r="F2">
-        <v>0.3850354218043321</v>
+        <v>0.5689882716264592</v>
       </c>
       <c r="G2">
-        <v>0.2786147836713653</v>
+        <v>0.4091863476227573</v>
       </c>
       <c r="H2">
-        <v>0.2438824159990247</v>
+        <v>0.5691357661397589</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.160455332925835</v>
+        <v>0.4151787958436444</v>
       </c>
       <c r="L2">
-        <v>0.1621433105235823</v>
+        <v>0.09260658787896148</v>
       </c>
       <c r="M2">
-        <v>0.1931463903392938</v>
+        <v>0.1755718693677686</v>
       </c>
       <c r="N2">
-        <v>0.9636315121380736</v>
+        <v>1.912199208432453</v>
       </c>
       <c r="O2">
-        <v>1.050713494922036</v>
+        <v>1.90399042961792</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7292900349584386</v>
+        <v>0.8916484417135848</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06014580975286776</v>
+        <v>0.02430413097302875</v>
       </c>
       <c r="E3">
-        <v>0.1893143885412139</v>
+        <v>0.4503219822598235</v>
       </c>
       <c r="F3">
-        <v>0.3610138025927228</v>
+        <v>0.5668236749523956</v>
       </c>
       <c r="G3">
-        <v>0.2633893901473243</v>
+        <v>0.4084925655182445</v>
       </c>
       <c r="H3">
-        <v>0.2414365597499</v>
+        <v>0.5719123362896497</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.036154032112762</v>
+        <v>0.3743562180654578</v>
       </c>
       <c r="L3">
-        <v>0.1413280469815135</v>
+        <v>0.08692448544277198</v>
       </c>
       <c r="M3">
-        <v>0.1710615926974519</v>
+        <v>0.1701456212863981</v>
       </c>
       <c r="N3">
-        <v>1.003357174137028</v>
+        <v>1.929860197451189</v>
       </c>
       <c r="O3">
-        <v>1.013011624802203</v>
+        <v>1.908105293697972</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6783374894656333</v>
+        <v>0.8803870732146493</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05535828830789313</v>
+        <v>0.02270806076525389</v>
       </c>
       <c r="E4">
-        <v>0.1928805182281739</v>
+        <v>0.4526609001479356</v>
       </c>
       <c r="F4">
-        <v>0.3468961178704646</v>
+        <v>0.5658280754547107</v>
       </c>
       <c r="G4">
-        <v>0.2545932804273505</v>
+        <v>0.4083331038012972</v>
       </c>
       <c r="H4">
-        <v>0.2403010766234814</v>
+        <v>0.5738472880450303</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9596112301959749</v>
+        <v>0.3491234353667494</v>
       </c>
       <c r="L4">
-        <v>0.1286060803704885</v>
+        <v>0.08346945971012332</v>
       </c>
       <c r="M4">
-        <v>0.1576132525281828</v>
+        <v>0.1668894609335965</v>
       </c>
       <c r="N4">
-        <v>1.028841912845003</v>
+        <v>1.941289529244072</v>
       </c>
       <c r="O4">
-        <v>0.9917920790428383</v>
+        <v>1.911670501959506</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6577063464936259</v>
+        <v>0.8758978178163659</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05340362765237927</v>
+        <v>0.02205471701878992</v>
       </c>
       <c r="E5">
-        <v>0.1943838841181265</v>
+        <v>0.4536484086437982</v>
       </c>
       <c r="F5">
-        <v>0.3412941313659985</v>
+        <v>0.565506303258779</v>
       </c>
       <c r="G5">
-        <v>0.251140687548272</v>
+        <v>0.4083351506713555</v>
       </c>
       <c r="H5">
-        <v>0.2399274050445896</v>
+        <v>0.5746937381793771</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9283585018883969</v>
+        <v>0.3387993720308629</v>
       </c>
       <c r="L5">
-        <v>0.1234346433623088</v>
+        <v>0.08207010393743985</v>
       </c>
       <c r="M5">
-        <v>0.1521588880629956</v>
+        <v>0.1655816795986524</v>
       </c>
       <c r="N5">
-        <v>1.039496871118866</v>
+        <v>1.946094368575695</v>
       </c>
       <c r="O5">
-        <v>0.9836088940309224</v>
+        <v>1.913384704044148</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6542883122982346</v>
+        <v>0.8751584268722183</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05307882446504664</v>
+        <v>0.02194605361136581</v>
       </c>
       <c r="E6">
-        <v>0.1946365288024827</v>
+        <v>0.4538144617225814</v>
       </c>
       <c r="F6">
-        <v>0.3403728300874249</v>
+        <v>0.5654579457593982</v>
       </c>
       <c r="G6">
-        <v>0.2505751540279704</v>
+        <v>0.408339539201485</v>
       </c>
       <c r="H6">
-        <v>0.2398706484216433</v>
+        <v>0.5748377922980978</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9231651833704149</v>
+        <v>0.3370825813505292</v>
       </c>
       <c r="L6">
-        <v>0.1225766537985962</v>
+        <v>0.08183826387134019</v>
       </c>
       <c r="M6">
-        <v>0.1512547002526858</v>
+        <v>0.1653656826337482</v>
       </c>
       <c r="N6">
-        <v>1.041282263207471</v>
+        <v>1.946901107261329</v>
       </c>
       <c r="O6">
-        <v>0.9822774993746322</v>
+        <v>1.913685135934074</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6780587256714341</v>
+        <v>0.8803261245522833</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0553319425068679</v>
+        <v>0.02269926137351774</v>
       </c>
       <c r="E7">
-        <v>0.1929005908748822</v>
+        <v>0.4526740787568855</v>
       </c>
       <c r="F7">
-        <v>0.3468199658072848</v>
+        <v>0.5658233959244114</v>
       </c>
       <c r="G7">
-        <v>0.2545461925590189</v>
+        <v>0.4083328599967189</v>
       </c>
       <c r="H7">
-        <v>0.2402956805557181</v>
+        <v>0.5738584688653532</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9591899983458205</v>
+        <v>0.3489843686290612</v>
       </c>
       <c r="L7">
-        <v>0.1285362868962494</v>
+        <v>0.08345055258234169</v>
       </c>
       <c r="M7">
-        <v>0.1575395908193435</v>
+        <v>0.166871746111827</v>
       </c>
       <c r="N7">
-        <v>1.028984523870639</v>
+        <v>1.941353732483634</v>
       </c>
       <c r="O7">
-        <v>0.9916798666601778</v>
+        <v>1.911692561863887</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7841382619174624</v>
+        <v>0.9040051106618989</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06524279974097169</v>
+        <v>0.02599717585069072</v>
       </c>
       <c r="E8">
-        <v>0.1856819840548738</v>
+        <v>0.4479435095427684</v>
       </c>
       <c r="F8">
-        <v>0.3766168860215231</v>
+        <v>0.5681727576387487</v>
       </c>
       <c r="G8">
-        <v>0.273246122715058</v>
+        <v>0.4088918188784305</v>
       </c>
       <c r="H8">
-        <v>0.2429611810351204</v>
+        <v>0.5700454090101843</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.117638869303335</v>
+        <v>0.4011383155416297</v>
       </c>
       <c r="L8">
-        <v>0.1549528556374185</v>
+        <v>0.09064043659100207</v>
       </c>
       <c r="M8">
-        <v>0.1855070000146029</v>
+        <v>0.173685286276946</v>
       </c>
       <c r="N8">
-        <v>0.9770989208509686</v>
+        <v>1.918167268604781</v>
       </c>
       <c r="O8">
-        <v>1.03730033392182</v>
+        <v>1.905193757986481</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.997035478506092</v>
+        <v>0.9535516189847328</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08458793666030573</v>
+        <v>0.03236975910076723</v>
       </c>
       <c r="E9">
-        <v>0.1731527384213916</v>
+        <v>0.4397476310559281</v>
       </c>
       <c r="F9">
-        <v>0.4404291221955248</v>
+        <v>0.5754229252035401</v>
       </c>
       <c r="G9">
-        <v>0.3146309545100507</v>
+        <v>0.4121029712428879</v>
       </c>
       <c r="H9">
-        <v>0.251239379390455</v>
+        <v>0.5643908952618517</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.42686901132052</v>
+        <v>0.5020592230901855</v>
       </c>
       <c r="L9">
-        <v>0.20731338222528</v>
+        <v>0.1050046544880274</v>
       </c>
       <c r="M9">
-        <v>0.2413436811989804</v>
+        <v>0.1876415849453217</v>
       </c>
       <c r="N9">
-        <v>0.8842621383285056</v>
+        <v>1.877339197256497</v>
       </c>
       <c r="O9">
-        <v>1.143079254317684</v>
+        <v>1.900685425126824</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.157052860659178</v>
+        <v>0.9918270235492344</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09877113710849272</v>
+        <v>0.03699293430884865</v>
       </c>
       <c r="E10">
-        <v>0.1649764014904056</v>
+        <v>0.4343815364711716</v>
       </c>
       <c r="F10">
-        <v>0.4911321925171919</v>
+        <v>0.5823585593567273</v>
       </c>
       <c r="G10">
-        <v>0.3483959707503317</v>
+        <v>0.4157530239530871</v>
       </c>
       <c r="H10">
-        <v>0.2593934436679177</v>
+        <v>0.5613439844915575</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.653572208901011</v>
+        <v>0.5753563133135913</v>
       </c>
       <c r="L10">
-        <v>0.2462607221158777</v>
+        <v>0.1157160934327379</v>
       </c>
       <c r="M10">
-        <v>0.2831297220525499</v>
+        <v>0.1982528572146407</v>
       </c>
       <c r="N10">
-        <v>0.8218284278641903</v>
+        <v>1.850164803584363</v>
       </c>
       <c r="O10">
-        <v>1.232216702101709</v>
+        <v>1.902389325697129</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.230778808908667</v>
+        <v>1.009641587715464</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1052229076687325</v>
+        <v>0.0390831678556367</v>
       </c>
       <c r="E11">
-        <v>0.1614887815028769</v>
+        <v>0.4320819461287115</v>
       </c>
       <c r="F11">
-        <v>0.5151541555931445</v>
+        <v>0.5858627093527815</v>
       </c>
       <c r="G11">
-        <v>0.3645997392061844</v>
+        <v>0.4176941809051868</v>
       </c>
       <c r="H11">
-        <v>0.2636025684571024</v>
+        <v>0.5601975564679407</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.756700246162467</v>
+        <v>0.6085117166392422</v>
       </c>
       <c r="L11">
-        <v>0.2641152654141052</v>
+        <v>0.1206226578250664</v>
       </c>
       <c r="M11">
-        <v>0.3023419991927909</v>
+        <v>0.2031568261042693</v>
       </c>
       <c r="N11">
-        <v>0.7947587737905764</v>
+        <v>1.838413753865765</v>
       </c>
       <c r="O11">
-        <v>1.275593008595735</v>
+        <v>1.904252895409741</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.258843801811196</v>
+        <v>1.016444935424033</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1076664778272232</v>
+        <v>0.03987280615241673</v>
       </c>
       <c r="E12">
-        <v>0.160202212427242</v>
+        <v>0.4312314409679292</v>
       </c>
       <c r="F12">
-        <v>0.5243993035808785</v>
+        <v>0.587239771823306</v>
       </c>
       <c r="G12">
-        <v>0.370867033175216</v>
+        <v>0.41846962296691</v>
       </c>
       <c r="H12">
-        <v>0.2652727109075101</v>
+        <v>0.55979782405268</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.795760645960826</v>
+        <v>0.6210392319623281</v>
       </c>
       <c r="L12">
-        <v>0.2708988513029311</v>
+        <v>0.1224854357240872</v>
       </c>
       <c r="M12">
-        <v>0.3096496532958071</v>
+        <v>0.2050247695506187</v>
       </c>
       <c r="N12">
-        <v>0.7847068421451517</v>
+        <v>1.834051675339875</v>
       </c>
       <c r="O12">
-        <v>1.292455433539743</v>
+        <v>1.905114979525905</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.25279277952265</v>
+        <v>1.014977170900067</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1071401848038818</v>
+        <v>0.03970282796448998</v>
       </c>
       <c r="E13">
-        <v>0.1604777679393781</v>
+        <v>0.4314137103286555</v>
       </c>
       <c r="F13">
-        <v>0.5224014073846632</v>
+        <v>0.5869409691460845</v>
       </c>
       <c r="G13">
-        <v>0.369511256228563</v>
+        <v>0.4183008222842517</v>
       </c>
       <c r="H13">
-        <v>0.2649095527726644</v>
+        <v>0.5598823848575449</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.787347796405584</v>
+        <v>0.6183424513811815</v>
       </c>
       <c r="L13">
-        <v>0.2694368406157395</v>
+        <v>0.1220840427401555</v>
       </c>
       <c r="M13">
-        <v>0.308074327612438</v>
+        <v>0.2046219911103506</v>
       </c>
       <c r="N13">
-        <v>0.7868627458706072</v>
+        <v>1.834987223037199</v>
       </c>
       <c r="O13">
-        <v>1.288803883358156</v>
+        <v>1.904922360830113</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.23308472166255</v>
+        <v>1.010200156971365</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.105423930425772</v>
+        <v>0.0391481699192866</v>
       </c>
       <c r="E14">
-        <v>0.1613822463431447</v>
+        <v>0.4320115679692904</v>
       </c>
       <c r="F14">
-        <v>0.5159117172583763</v>
+        <v>0.5859749971706236</v>
       </c>
       <c r="G14">
-        <v>0.3651126632667712</v>
+        <v>0.4177571679610281</v>
       </c>
       <c r="H14">
-        <v>0.2637384182005178</v>
+        <v>0.5601639812755224</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.759913558842896</v>
+        <v>0.6095429224057511</v>
       </c>
       <c r="L14">
-        <v>0.2646728887832097</v>
+        <v>0.1207758147084519</v>
       </c>
       <c r="M14">
-        <v>0.3029425368677394</v>
+        <v>0.2033102849129378</v>
       </c>
       <c r="N14">
-        <v>0.7939277689358448</v>
+        <v>1.83805312379048</v>
       </c>
       <c r="O14">
-        <v>1.276971357701569</v>
+        <v>1.904320686027233</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.221032435497705</v>
+        <v>1.007281550711468</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1043727444227258</v>
+        <v>0.03880817891008803</v>
       </c>
       <c r="E15">
-        <v>0.1619407322612094</v>
+        <v>0.4323804153729203</v>
       </c>
       <c r="F15">
-        <v>0.5119562765043355</v>
+        <v>0.5853898356745333</v>
       </c>
       <c r="G15">
-        <v>0.3624357991066205</v>
+        <v>0.4174294210690164</v>
       </c>
       <c r="H15">
-        <v>0.2630311270279861</v>
+        <v>0.5603409445855334</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.743110595413896</v>
+        <v>0.6041493262816573</v>
       </c>
       <c r="L15">
-        <v>0.2617578392831916</v>
+        <v>0.1199751051945839</v>
       </c>
       <c r="M15">
-        <v>0.2998034792354289</v>
+        <v>0.202508244714771</v>
       </c>
       <c r="N15">
-        <v>0.7982814058929009</v>
+        <v>1.839942508348322</v>
       </c>
       <c r="O15">
-        <v>1.269781400178772</v>
+        <v>1.903972505687335</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.152254517396784</v>
+        <v>0.9906708578273538</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09834953258944523</v>
+        <v>0.03685607047158612</v>
       </c>
       <c r="E16">
-        <v>0.1652090565775834</v>
+        <v>0.4345346631517764</v>
       </c>
       <c r="F16">
-        <v>0.4895824775958246</v>
+        <v>0.5821365725735248</v>
       </c>
       <c r="G16">
-        <v>0.3473548330510994</v>
+        <v>0.4156318137583668</v>
       </c>
       <c r="H16">
-        <v>0.2591287921763268</v>
+        <v>0.5614237227734691</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.646833220691434</v>
+        <v>0.5731856898641468</v>
       </c>
       <c r="L16">
-        <v>0.2450968759674623</v>
+        <v>0.1153961108037009</v>
       </c>
       <c r="M16">
-        <v>0.2818785126530585</v>
+        <v>0.1979339062609213</v>
       </c>
       <c r="N16">
-        <v>0.8236249029102787</v>
+        <v>1.850945048777035</v>
       </c>
       <c r="O16">
-        <v>1.22944139128353</v>
+        <v>1.902289428669604</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.110309098679039</v>
+        <v>0.9805835158946934</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09465474478974301</v>
+        <v>0.03565519221504587</v>
       </c>
       <c r="E17">
-        <v>0.1672739895824353</v>
+        <v>0.4358924277266274</v>
       </c>
       <c r="F17">
-        <v>0.4761095530105379</v>
+        <v>0.580230154351618</v>
       </c>
       <c r="G17">
-        <v>0.3383261717044093</v>
+        <v>0.4146009414517096</v>
       </c>
       <c r="H17">
-        <v>0.2568658735225</v>
+        <v>0.5621493014384527</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.587775651648002</v>
+        <v>0.5541418943303427</v>
       </c>
       <c r="L17">
-        <v>0.2349129439188573</v>
+        <v>0.1125956495791485</v>
       </c>
       <c r="M17">
-        <v>0.2709364236819241</v>
+        <v>0.1951472852674101</v>
       </c>
       <c r="N17">
-        <v>0.8395184504197744</v>
+        <v>1.857851147308914</v>
       </c>
       <c r="O17">
-        <v>1.205439161181687</v>
+        <v>1.901535604888892</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.086270261042841</v>
+        <v>0.9748195000838962</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.09252954916725997</v>
+        <v>0.03496326943858463</v>
       </c>
       <c r="E18">
-        <v>0.1684834572573406</v>
+        <v>0.4366866967124556</v>
       </c>
       <c r="F18">
-        <v>0.468449657037894</v>
+        <v>0.579166496521772</v>
       </c>
       <c r="G18">
-        <v>0.3332119276432621</v>
+        <v>0.4140344346684941</v>
       </c>
       <c r="H18">
-        <v>0.255611069630163</v>
+        <v>0.5625891936855538</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.55380674354231</v>
+        <v>0.5431707716185485</v>
       </c>
       <c r="L18">
-        <v>0.2290681565870898</v>
+        <v>0.1109880932033036</v>
       </c>
       <c r="M18">
-        <v>0.2646617904520312</v>
+        <v>0.1935517358772678</v>
       </c>
       <c r="N18">
-        <v>0.8487848924870711</v>
+        <v>1.861880837947545</v>
       </c>
       <c r="O18">
-        <v>1.191897914621507</v>
+        <v>1.90120448387907</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.078145710450315</v>
+        <v>0.9728744399797904</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.09180997204213526</v>
+        <v>0.03472878968359083</v>
       </c>
       <c r="E19">
-        <v>0.168896678583577</v>
+        <v>0.4369579113858126</v>
       </c>
       <c r="F19">
-        <v>0.4658711744193198</v>
+        <v>0.5788120070914857</v>
       </c>
       <c r="G19">
-        <v>0.3314935739362568</v>
+        <v>0.4138471635015293</v>
       </c>
       <c r="H19">
-        <v>0.2551941179978314</v>
+        <v>0.5627420100246923</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.542305122068626</v>
+        <v>0.5394531307268551</v>
       </c>
       <c r="L19">
-        <v>0.2270913199176192</v>
+        <v>0.1104443540892532</v>
       </c>
       <c r="M19">
-        <v>0.2625404734384951</v>
+        <v>0.1930127580418883</v>
       </c>
       <c r="N19">
-        <v>0.8519435865133964</v>
+        <v>1.863255096138101</v>
       </c>
       <c r="O19">
-        <v>1.187357566469387</v>
+        <v>1.901109973208321</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.114765162585485</v>
+        <v>0.9816534064839573</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.09504806333426785</v>
+        <v>0.03578315318591052</v>
       </c>
       <c r="E20">
-        <v>0.1670519150067564</v>
+        <v>0.4357465132518472</v>
       </c>
       <c r="F20">
-        <v>0.4775344416409553</v>
+        <v>0.5804296951703165</v>
       </c>
       <c r="G20">
-        <v>0.3392790622322792</v>
+        <v>0.4147079448151771</v>
       </c>
       <c r="H20">
-        <v>0.2571018940501233</v>
+        <v>0.5620697280784128</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.594062431459548</v>
+        <v>0.5561709691911574</v>
       </c>
       <c r="L20">
-        <v>0.2359957029974424</v>
+        <v>0.1128934335479244</v>
       </c>
       <c r="M20">
-        <v>0.2720992428242255</v>
+        <v>0.1954431773501746</v>
       </c>
       <c r="N20">
-        <v>0.8378135778111613</v>
+        <v>1.85711003204101</v>
       </c>
       <c r="O20">
-        <v>1.207966682568951</v>
+        <v>1.901605247568483</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.238869375681105</v>
+        <v>1.011601729651375</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1059280206294062</v>
+        <v>0.03931113796004126</v>
       </c>
       <c r="E21">
-        <v>0.1611156467960981</v>
+        <v>0.4318354121054568</v>
       </c>
       <c r="F21">
-        <v>0.5178137744289231</v>
+        <v>0.5862573670606466</v>
       </c>
       <c r="G21">
-        <v>0.3664009917287103</v>
+        <v>0.4179157568460568</v>
       </c>
       <c r="H21">
-        <v>0.2640803036165522</v>
+        <v>0.5600803366137228</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.767971373349383</v>
+        <v>0.6121283152380386</v>
       </c>
       <c r="L21">
-        <v>0.2660715448249533</v>
+        <v>0.1211599444015832</v>
       </c>
       <c r="M21">
-        <v>0.3044489637051129</v>
+        <v>0.2036952696063139</v>
       </c>
       <c r="N21">
-        <v>0.7918471463619561</v>
+        <v>1.83715021209272</v>
       </c>
       <c r="O21">
-        <v>1.280434754111951</v>
+        <v>1.904493169133787</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.320839286744416</v>
+        <v>1.031508753637098</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1130414084550893</v>
+        <v>0.04160585928539717</v>
       </c>
       <c r="E22">
-        <v>0.1574352001949357</v>
+        <v>0.4293975839979041</v>
       </c>
       <c r="F22">
-        <v>0.5450100717713582</v>
+        <v>0.5903581680800869</v>
       </c>
       <c r="G22">
-        <v>0.3848969706342444</v>
+        <v>0.4202475423555825</v>
       </c>
       <c r="H22">
-        <v>0.2690876911834863</v>
+        <v>0.5589806054262283</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.881682045032989</v>
+        <v>0.6485377941978925</v>
       </c>
       <c r="L22">
-        <v>0.2858601382472585</v>
+        <v>0.1265903332599692</v>
       </c>
       <c r="M22">
-        <v>0.3257816985340298</v>
+        <v>0.2091520584767181</v>
       </c>
       <c r="N22">
-        <v>0.7629675999786798</v>
+        <v>1.824617004306983</v>
       </c>
       <c r="O22">
-        <v>1.330357928287583</v>
+        <v>1.907292096625469</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.277007372791132</v>
+        <v>1.020853624046708</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1092444534780697</v>
+        <v>0.04038214393172268</v>
       </c>
       <c r="E23">
-        <v>0.1593810255143033</v>
+        <v>0.4306878884597669</v>
       </c>
       <c r="F23">
-        <v>0.5304113724111019</v>
+        <v>0.5881427956071761</v>
       </c>
       <c r="G23">
-        <v>0.3749514063316894</v>
+        <v>0.418981495493199</v>
       </c>
       <c r="H23">
-        <v>0.266372778403948</v>
+        <v>0.5595492321877771</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.820985004130961</v>
+        <v>0.6291204166690534</v>
       </c>
       <c r="L23">
-        <v>0.2752855422491649</v>
+        <v>0.1236895278748023</v>
       </c>
       <c r="M23">
-        <v>0.3143775269518443</v>
+        <v>0.2062338952080083</v>
       </c>
       <c r="N23">
-        <v>0.7782723170503303</v>
+        <v>1.831259403452762</v>
       </c>
       <c r="O23">
-        <v>1.303468193422674</v>
+        <v>1.905714896551501</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.112750339854415</v>
+        <v>0.9811695988517215</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09487024720965564</v>
+        <v>0.03572530676881058</v>
       </c>
       <c r="E24">
-        <v>0.1671522454896968</v>
+        <v>0.4358124385962485</v>
       </c>
       <c r="F24">
-        <v>0.4768899828528959</v>
+        <v>0.5803393819387637</v>
       </c>
       <c r="G24">
-        <v>0.3388480230326252</v>
+        <v>0.414659487122691</v>
       </c>
       <c r="H24">
-        <v>0.2569950456620376</v>
+        <v>0.5621056323333136</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.591220228514715</v>
+        <v>0.5552536947616886</v>
       </c>
       <c r="L24">
-        <v>0.2355061563915797</v>
+        <v>0.11275879772667</v>
       </c>
       <c r="M24">
-        <v>0.2715734823139719</v>
+        <v>0.1953093842326687</v>
       </c>
       <c r="N24">
-        <v>0.8385839493625475</v>
+        <v>1.857444905590381</v>
       </c>
       <c r="O24">
-        <v>1.206823188940177</v>
+        <v>1.901573443565127</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9388562019659048</v>
+        <v>0.9398172458850524</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.07936167238415948</v>
+        <v>0.03065604685910728</v>
       </c>
       <c r="E25">
-        <v>0.1763643518135138</v>
+        <v>0.4418494878447037</v>
       </c>
       <c r="F25">
-        <v>0.4225361523406121</v>
+        <v>0.573178842696187</v>
       </c>
       <c r="G25">
-        <v>0.3028820016619278</v>
+        <v>0.4110076885581222</v>
       </c>
       <c r="H25">
-        <v>0.2486520737147586</v>
+        <v>0.565725833986626</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.343331771262797</v>
+        <v>0.4749048340966056</v>
       </c>
       <c r="L25">
-        <v>0.1930749791177959</v>
+        <v>0.1010907494194981</v>
       </c>
       <c r="M25">
-        <v>0.2261163436347964</v>
+        <v>0.1838028704449215</v>
       </c>
       <c r="N25">
-        <v>0.9083888599455197</v>
+        <v>1.887888206151567</v>
       </c>
       <c r="O25">
-        <v>1.112568984693596</v>
+        <v>1.901023818182878</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_179/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_179/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.910632418942356</v>
+        <v>0.8131882504912937</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0268843822672693</v>
+        <v>0.06792115989443204</v>
       </c>
       <c r="E2">
-        <v>0.4467350302404096</v>
+        <v>0.1838348395219613</v>
       </c>
       <c r="F2">
-        <v>0.5689882716264592</v>
+        <v>0.3850354218043321</v>
       </c>
       <c r="G2">
-        <v>0.4091863476227573</v>
+        <v>0.278614783671415</v>
       </c>
       <c r="H2">
-        <v>0.5691357661397589</v>
+        <v>0.2438824159990247</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4151787958436444</v>
+        <v>1.160455332925835</v>
       </c>
       <c r="L2">
-        <v>0.09260658787896148</v>
+        <v>0.1621433105235255</v>
       </c>
       <c r="M2">
-        <v>0.1755718693677686</v>
+        <v>0.1931463903392832</v>
       </c>
       <c r="N2">
-        <v>1.912199208432453</v>
+        <v>0.9636315121380079</v>
       </c>
       <c r="O2">
-        <v>1.90399042961792</v>
+        <v>1.050713494922036</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8916484417135848</v>
+        <v>0.729290034958467</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02430413097302875</v>
+        <v>0.06014580975290329</v>
       </c>
       <c r="E3">
-        <v>0.4503219822598235</v>
+        <v>0.1893143885412298</v>
       </c>
       <c r="F3">
-        <v>0.5668236749523956</v>
+        <v>0.3610138025927228</v>
       </c>
       <c r="G3">
-        <v>0.4084925655182445</v>
+        <v>0.2633893901472604</v>
       </c>
       <c r="H3">
-        <v>0.5719123362896497</v>
+        <v>0.2414365597498929</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3743562180654578</v>
+        <v>1.036154032112705</v>
       </c>
       <c r="L3">
-        <v>0.08692448544277198</v>
+        <v>0.1413280469813785</v>
       </c>
       <c r="M3">
-        <v>0.1701456212863981</v>
+        <v>0.1710615926974484</v>
       </c>
       <c r="N3">
-        <v>1.929860197451189</v>
+        <v>1.003357174137069</v>
       </c>
       <c r="O3">
-        <v>1.908105293697972</v>
+        <v>1.013011624802189</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8803870732146493</v>
+        <v>0.6783374894656049</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02270806076525389</v>
+        <v>0.05535828830800682</v>
       </c>
       <c r="E4">
-        <v>0.4526609001479356</v>
+        <v>0.1928805182281526</v>
       </c>
       <c r="F4">
-        <v>0.5658280754547107</v>
+        <v>0.3468961178704433</v>
       </c>
       <c r="G4">
-        <v>0.4083331038012972</v>
+        <v>0.2545932804272866</v>
       </c>
       <c r="H4">
-        <v>0.5738472880450303</v>
+        <v>0.2403010766235738</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3491234353667494</v>
+        <v>0.9596112301960034</v>
       </c>
       <c r="L4">
-        <v>0.08346945971012332</v>
+        <v>0.1286060803706306</v>
       </c>
       <c r="M4">
-        <v>0.1668894609335965</v>
+        <v>0.157613252528197</v>
       </c>
       <c r="N4">
-        <v>1.941289529244072</v>
+        <v>1.028841912844934</v>
       </c>
       <c r="O4">
-        <v>1.911670501959506</v>
+        <v>0.9917920790428809</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8758978178163659</v>
+        <v>0.6577063464937396</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02205471701878992</v>
+        <v>0.05340362765248585</v>
       </c>
       <c r="E5">
-        <v>0.4536484086437982</v>
+        <v>0.1943838841180945</v>
       </c>
       <c r="F5">
-        <v>0.565506303258779</v>
+        <v>0.3412941313659843</v>
       </c>
       <c r="G5">
-        <v>0.4083351506713555</v>
+        <v>0.251140687548336</v>
       </c>
       <c r="H5">
-        <v>0.5746937381793771</v>
+        <v>0.2399274050445825</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3387993720308629</v>
+        <v>0.9283585018882974</v>
       </c>
       <c r="L5">
-        <v>0.08207010393743985</v>
+        <v>0.1234346433621951</v>
       </c>
       <c r="M5">
-        <v>0.1655816795986524</v>
+        <v>0.1521588880629849</v>
       </c>
       <c r="N5">
-        <v>1.946094368575695</v>
+        <v>1.039496871118867</v>
       </c>
       <c r="O5">
-        <v>1.913384704044148</v>
+        <v>0.9836088940308514</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8751584268722183</v>
+        <v>0.6542883122981209</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02194605361136581</v>
+        <v>0.05307882446508216</v>
       </c>
       <c r="E6">
-        <v>0.4538144617225814</v>
+        <v>0.1946365288024827</v>
       </c>
       <c r="F6">
-        <v>0.5654579457593982</v>
+        <v>0.3403728300874391</v>
       </c>
       <c r="G6">
-        <v>0.408339539201485</v>
+        <v>0.2505751540280201</v>
       </c>
       <c r="H6">
-        <v>0.5748377922980978</v>
+        <v>0.2398706484216575</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3370825813505292</v>
+        <v>0.923165183370358</v>
       </c>
       <c r="L6">
-        <v>0.08183826387134019</v>
+        <v>0.1225766537985962</v>
       </c>
       <c r="M6">
-        <v>0.1653656826337482</v>
+        <v>0.1512547002526858</v>
       </c>
       <c r="N6">
-        <v>1.946901107261329</v>
+        <v>1.041282263207471</v>
       </c>
       <c r="O6">
-        <v>1.913685135934074</v>
+        <v>0.9822774993745895</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8803261245522833</v>
+        <v>0.6780587256712067</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02269926137351774</v>
+        <v>0.0553319425069958</v>
       </c>
       <c r="E7">
-        <v>0.4526740787568855</v>
+        <v>0.1929005908748556</v>
       </c>
       <c r="F7">
-        <v>0.5658233959244114</v>
+        <v>0.3468199658072848</v>
       </c>
       <c r="G7">
-        <v>0.4083328599967189</v>
+        <v>0.254546192558891</v>
       </c>
       <c r="H7">
-        <v>0.5738584688653532</v>
+        <v>0.2402956805557181</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3489843686290612</v>
+        <v>0.9591899983458347</v>
       </c>
       <c r="L7">
-        <v>0.08345055258234169</v>
+        <v>0.1285362868962849</v>
       </c>
       <c r="M7">
-        <v>0.166871746111827</v>
+        <v>0.1575395908193258</v>
       </c>
       <c r="N7">
-        <v>1.941353732483634</v>
+        <v>1.028984523870642</v>
       </c>
       <c r="O7">
-        <v>1.911692561863887</v>
+        <v>0.9916798666601636</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9040051106618989</v>
+        <v>0.7841382619174624</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02599717585069072</v>
+        <v>0.06524279974081537</v>
       </c>
       <c r="E8">
-        <v>0.4479435095427684</v>
+        <v>0.1856819840548969</v>
       </c>
       <c r="F8">
-        <v>0.5681727576387487</v>
+        <v>0.376616886021516</v>
       </c>
       <c r="G8">
-        <v>0.4088918188784305</v>
+        <v>0.2732461227150651</v>
       </c>
       <c r="H8">
-        <v>0.5700454090101843</v>
+        <v>0.2429611810351275</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4011383155416297</v>
+        <v>1.11763886930342</v>
       </c>
       <c r="L8">
-        <v>0.09064043659100207</v>
+        <v>0.1549528556374824</v>
       </c>
       <c r="M8">
-        <v>0.173685286276946</v>
+        <v>0.1855070000145957</v>
       </c>
       <c r="N8">
-        <v>1.918167268604781</v>
+        <v>0.9770989208509526</v>
       </c>
       <c r="O8">
-        <v>1.905193757986481</v>
+        <v>1.037300333921763</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9535516189847328</v>
+        <v>0.997035478506092</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03236975910076723</v>
+        <v>0.08458793666041942</v>
       </c>
       <c r="E9">
-        <v>0.4397476310559281</v>
+        <v>0.1731527384213765</v>
       </c>
       <c r="F9">
-        <v>0.5754229252035401</v>
+        <v>0.4404291221955248</v>
       </c>
       <c r="G9">
-        <v>0.4121029712428879</v>
+        <v>0.3146309545100223</v>
       </c>
       <c r="H9">
-        <v>0.5643908952618517</v>
+        <v>0.251239379390455</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5020592230901855</v>
+        <v>1.426869011320491</v>
       </c>
       <c r="L9">
-        <v>0.1050046544880274</v>
+        <v>0.2073133822252089</v>
       </c>
       <c r="M9">
-        <v>0.1876415849453217</v>
+        <v>0.241343681198952</v>
       </c>
       <c r="N9">
-        <v>1.877339197256497</v>
+        <v>0.8842621383284985</v>
       </c>
       <c r="O9">
-        <v>1.900685425126824</v>
+        <v>1.143079254317684</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9918270235492344</v>
+        <v>1.157052860659292</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03699293430884865</v>
+        <v>0.09877113710879826</v>
       </c>
       <c r="E10">
-        <v>0.4343815364711716</v>
+        <v>0.1649764014904322</v>
       </c>
       <c r="F10">
-        <v>0.5823585593567273</v>
+        <v>0.4911321925171919</v>
       </c>
       <c r="G10">
-        <v>0.4157530239530871</v>
+        <v>0.3483959707502891</v>
       </c>
       <c r="H10">
-        <v>0.5613439844915575</v>
+        <v>0.2593934436679319</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5753563133135913</v>
+        <v>1.653572208901096</v>
       </c>
       <c r="L10">
-        <v>0.1157160934327379</v>
+        <v>0.2462607221159487</v>
       </c>
       <c r="M10">
-        <v>0.1982528572146407</v>
+        <v>0.2831297220525499</v>
       </c>
       <c r="N10">
-        <v>1.850164803584363</v>
+        <v>0.8218284278642045</v>
       </c>
       <c r="O10">
-        <v>1.902389325697129</v>
+        <v>1.232216702101738</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.009641587715464</v>
+        <v>1.230778808908894</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0390831678556367</v>
+        <v>0.1052229076687468</v>
       </c>
       <c r="E11">
-        <v>0.4320819461287115</v>
+        <v>0.1614887815028645</v>
       </c>
       <c r="F11">
-        <v>0.5858627093527815</v>
+        <v>0.5151541555931516</v>
       </c>
       <c r="G11">
-        <v>0.4176941809051868</v>
+        <v>0.3645997392061844</v>
       </c>
       <c r="H11">
-        <v>0.5601975564679407</v>
+        <v>0.2636025684571024</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6085117166392422</v>
+        <v>1.756700246162268</v>
       </c>
       <c r="L11">
-        <v>0.1206226578250664</v>
+        <v>0.2641152654140626</v>
       </c>
       <c r="M11">
-        <v>0.2031568261042693</v>
+        <v>0.3023419991927909</v>
       </c>
       <c r="N11">
-        <v>1.838413753865765</v>
+        <v>0.7947587737905799</v>
       </c>
       <c r="O11">
-        <v>1.904252895409741</v>
+        <v>1.275593008595678</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.016444935424033</v>
+        <v>1.258843801811139</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03987280615241673</v>
+        <v>0.1076664778272658</v>
       </c>
       <c r="E12">
-        <v>0.4312314409679292</v>
+        <v>0.1602022124272544</v>
       </c>
       <c r="F12">
-        <v>0.587239771823306</v>
+        <v>0.5243993035808643</v>
       </c>
       <c r="G12">
-        <v>0.41846962296691</v>
+        <v>0.370867033175216</v>
       </c>
       <c r="H12">
-        <v>0.55979782405268</v>
+        <v>0.2652727109075101</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6210392319623281</v>
+        <v>1.795760645960854</v>
       </c>
       <c r="L12">
-        <v>0.1224854357240872</v>
+        <v>0.2708988513028885</v>
       </c>
       <c r="M12">
-        <v>0.2050247695506187</v>
+        <v>0.3096496532958</v>
       </c>
       <c r="N12">
-        <v>1.834051675339875</v>
+        <v>0.7847068421451375</v>
       </c>
       <c r="O12">
-        <v>1.905114979525905</v>
+        <v>1.292455433539743</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.014977170900067</v>
+        <v>1.252792779522679</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03970282796448998</v>
+        <v>0.1071401848038391</v>
       </c>
       <c r="E13">
-        <v>0.4314137103286555</v>
+        <v>0.1604777679394367</v>
       </c>
       <c r="F13">
-        <v>0.5869409691460845</v>
+        <v>0.5224014073846348</v>
       </c>
       <c r="G13">
-        <v>0.4183008222842517</v>
+        <v>0.3695112562286482</v>
       </c>
       <c r="H13">
-        <v>0.5598823848575449</v>
+        <v>0.2649095527726644</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6183424513811815</v>
+        <v>1.787347796405584</v>
       </c>
       <c r="L13">
-        <v>0.1220840427401555</v>
+        <v>0.2694368406156826</v>
       </c>
       <c r="M13">
-        <v>0.2046219911103506</v>
+        <v>0.3080743276124451</v>
       </c>
       <c r="N13">
-        <v>1.834987223037199</v>
+        <v>0.7868627458705895</v>
       </c>
       <c r="O13">
-        <v>1.904922360830113</v>
+        <v>1.288803883358128</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.010200156971365</v>
+        <v>1.23308472166255</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0391481699192866</v>
+        <v>0.1054239304255162</v>
       </c>
       <c r="E14">
-        <v>0.4320115679692904</v>
+        <v>0.1613822463431056</v>
       </c>
       <c r="F14">
-        <v>0.5859749971706236</v>
+        <v>0.5159117172583834</v>
       </c>
       <c r="G14">
-        <v>0.4177571679610281</v>
+        <v>0.3651126632667712</v>
       </c>
       <c r="H14">
-        <v>0.5601639812755224</v>
+        <v>0.2637384182005178</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6095429224057511</v>
+        <v>1.75991355884301</v>
       </c>
       <c r="L14">
-        <v>0.1207758147084519</v>
+        <v>0.2646728887832808</v>
       </c>
       <c r="M14">
-        <v>0.2033102849129378</v>
+        <v>0.3029425368677323</v>
       </c>
       <c r="N14">
-        <v>1.83805312379048</v>
+        <v>0.7939277689358271</v>
       </c>
       <c r="O14">
-        <v>1.904320686027233</v>
+        <v>1.276971357701626</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.007281550711468</v>
+        <v>1.22103243549779</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03880817891008803</v>
+        <v>0.1043727444229532</v>
       </c>
       <c r="E15">
-        <v>0.4323804153729203</v>
+        <v>0.1619407322612183</v>
       </c>
       <c r="F15">
-        <v>0.5853898356745333</v>
+        <v>0.5119562765043355</v>
       </c>
       <c r="G15">
-        <v>0.4174294210690164</v>
+        <v>0.3624357991066347</v>
       </c>
       <c r="H15">
-        <v>0.5603409445855334</v>
+        <v>0.2630311270279861</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6041493262816573</v>
+        <v>1.743110595413953</v>
       </c>
       <c r="L15">
-        <v>0.1199751051945839</v>
+        <v>0.2617578392830069</v>
       </c>
       <c r="M15">
-        <v>0.202508244714771</v>
+        <v>0.2998034792354218</v>
       </c>
       <c r="N15">
-        <v>1.839942508348322</v>
+        <v>0.7982814058928405</v>
       </c>
       <c r="O15">
-        <v>1.903972505687335</v>
+        <v>1.269781400178829</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9906708578273538</v>
+        <v>1.152254517396671</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03685607047158612</v>
+        <v>0.09834953258928181</v>
       </c>
       <c r="E16">
-        <v>0.4345346631517764</v>
+        <v>0.165209056577611</v>
       </c>
       <c r="F16">
-        <v>0.5821365725735248</v>
+        <v>0.4895824775958175</v>
       </c>
       <c r="G16">
-        <v>0.4156318137583668</v>
+        <v>0.3473548330511562</v>
       </c>
       <c r="H16">
-        <v>0.5614237227734691</v>
+        <v>0.2591287921763126</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5731856898641468</v>
+        <v>1.646833220691406</v>
       </c>
       <c r="L16">
-        <v>0.1153961108037009</v>
+        <v>0.2450968759673628</v>
       </c>
       <c r="M16">
-        <v>0.1979339062609213</v>
+        <v>0.2818785126530514</v>
       </c>
       <c r="N16">
-        <v>1.850945048777035</v>
+        <v>0.8236249029102254</v>
       </c>
       <c r="O16">
-        <v>1.902289428669604</v>
+        <v>1.229441391283444</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9805835158946934</v>
+        <v>1.110309098678925</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03565519221504587</v>
+        <v>0.09465474478978564</v>
       </c>
       <c r="E17">
-        <v>0.4358924277266274</v>
+        <v>0.1672739895824193</v>
       </c>
       <c r="F17">
-        <v>0.580230154351618</v>
+        <v>0.476109553010545</v>
       </c>
       <c r="G17">
-        <v>0.4146009414517096</v>
+        <v>0.3383261717044093</v>
       </c>
       <c r="H17">
-        <v>0.5621493014384527</v>
+        <v>0.2568658735225</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5541418943303427</v>
+        <v>1.587775651648002</v>
       </c>
       <c r="L17">
-        <v>0.1125956495791485</v>
+        <v>0.2349129439188715</v>
       </c>
       <c r="M17">
-        <v>0.1951472852674101</v>
+        <v>0.2709364236819205</v>
       </c>
       <c r="N17">
-        <v>1.857851147308914</v>
+        <v>0.8395184504197672</v>
       </c>
       <c r="O17">
-        <v>1.901535604888892</v>
+        <v>1.205439161181687</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9748195000838962</v>
+        <v>1.086270261042841</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03496326943858463</v>
+        <v>0.09252954916715339</v>
       </c>
       <c r="E18">
-        <v>0.4366866967124556</v>
+        <v>0.1684834572573299</v>
       </c>
       <c r="F18">
-        <v>0.579166496521772</v>
+        <v>0.468449657037894</v>
       </c>
       <c r="G18">
-        <v>0.4140344346684941</v>
+        <v>0.3332119276432621</v>
       </c>
       <c r="H18">
-        <v>0.5625891936855538</v>
+        <v>0.255611069630163</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5431707716185485</v>
+        <v>1.553806743542367</v>
       </c>
       <c r="L18">
-        <v>0.1109880932033036</v>
+        <v>0.2290681565869903</v>
       </c>
       <c r="M18">
-        <v>0.1935517358772678</v>
+        <v>0.2646617904520241</v>
       </c>
       <c r="N18">
-        <v>1.861880837947545</v>
+        <v>0.848784892487064</v>
       </c>
       <c r="O18">
-        <v>1.90120448387907</v>
+        <v>1.191897914621507</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9728744399797904</v>
+        <v>1.078145710450201</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03472878968359083</v>
+        <v>0.09180997204191499</v>
       </c>
       <c r="E19">
-        <v>0.4369579113858126</v>
+        <v>0.1688966785835522</v>
       </c>
       <c r="F19">
-        <v>0.5788120070914857</v>
+        <v>0.4658711744193056</v>
       </c>
       <c r="G19">
-        <v>0.4138471635015293</v>
+        <v>0.3314935739362852</v>
       </c>
       <c r="H19">
-        <v>0.5627420100246923</v>
+        <v>0.2551941179978172</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5394531307268551</v>
+        <v>1.54230512206874</v>
       </c>
       <c r="L19">
-        <v>0.1104443540892532</v>
+        <v>0.2270913199174629</v>
       </c>
       <c r="M19">
-        <v>0.1930127580418883</v>
+        <v>0.262540473438488</v>
       </c>
       <c r="N19">
-        <v>1.863255096138101</v>
+        <v>0.8519435865134515</v>
       </c>
       <c r="O19">
-        <v>1.901109973208321</v>
+        <v>1.187357566469416</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9816534064839573</v>
+        <v>1.114765162585343</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03578315318591052</v>
+        <v>0.09504806333427496</v>
       </c>
       <c r="E20">
-        <v>0.4357465132518472</v>
+        <v>0.1670519150067378</v>
       </c>
       <c r="F20">
-        <v>0.5804296951703165</v>
+        <v>0.4775344416409411</v>
       </c>
       <c r="G20">
-        <v>0.4147079448151771</v>
+        <v>0.3392790622322934</v>
       </c>
       <c r="H20">
-        <v>0.5620697280784128</v>
+        <v>0.2571018940500096</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5561709691911574</v>
+        <v>1.594062431459577</v>
       </c>
       <c r="L20">
-        <v>0.1128934335479244</v>
+        <v>0.2359957029974424</v>
       </c>
       <c r="M20">
-        <v>0.1954431773501746</v>
+        <v>0.2720992428242255</v>
       </c>
       <c r="N20">
-        <v>1.85711003204101</v>
+        <v>0.8378135778112075</v>
       </c>
       <c r="O20">
-        <v>1.901605247568483</v>
+        <v>1.207966682568923</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.011601729651375</v>
+        <v>1.238869375681219</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03931113796004126</v>
+        <v>0.1059280206293067</v>
       </c>
       <c r="E21">
-        <v>0.4318354121054568</v>
+        <v>0.1611156467961035</v>
       </c>
       <c r="F21">
-        <v>0.5862573670606466</v>
+        <v>0.5178137744289231</v>
       </c>
       <c r="G21">
-        <v>0.4179157568460568</v>
+        <v>0.3664009917285966</v>
       </c>
       <c r="H21">
-        <v>0.5600803366137228</v>
+        <v>0.2640803036165522</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6121283152380386</v>
+        <v>1.767971373349411</v>
       </c>
       <c r="L21">
-        <v>0.1211599444015832</v>
+        <v>0.2660715448250244</v>
       </c>
       <c r="M21">
-        <v>0.2036952696063139</v>
+        <v>0.3044489637051058</v>
       </c>
       <c r="N21">
-        <v>1.83715021209272</v>
+        <v>0.7918471463619667</v>
       </c>
       <c r="O21">
-        <v>1.904493169133787</v>
+        <v>1.280434754111951</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.031508753637098</v>
+        <v>1.320839286744331</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04160585928539717</v>
+        <v>0.1130414084553166</v>
       </c>
       <c r="E22">
-        <v>0.4293975839979041</v>
+        <v>0.1574352001949162</v>
       </c>
       <c r="F22">
-        <v>0.5903581680800869</v>
+        <v>0.5450100717713724</v>
       </c>
       <c r="G22">
-        <v>0.4202475423555825</v>
+        <v>0.3848969706343297</v>
       </c>
       <c r="H22">
-        <v>0.5589806054262283</v>
+        <v>0.2690876911834721</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6485377941978925</v>
+        <v>1.881682045033045</v>
       </c>
       <c r="L22">
-        <v>0.1265903332599692</v>
+        <v>0.2858601382472727</v>
       </c>
       <c r="M22">
-        <v>0.2091520584767181</v>
+        <v>0.3257816985340369</v>
       </c>
       <c r="N22">
-        <v>1.824617004306983</v>
+        <v>0.7629675999786834</v>
       </c>
       <c r="O22">
-        <v>1.907292096625469</v>
+        <v>1.330357928287583</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.020853624046708</v>
+        <v>1.27700737279099</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04038214393172268</v>
+        <v>0.1092444534781265</v>
       </c>
       <c r="E23">
-        <v>0.4306878884597669</v>
+        <v>0.1593810255143353</v>
       </c>
       <c r="F23">
-        <v>0.5881427956071761</v>
+        <v>0.5304113724110948</v>
       </c>
       <c r="G23">
-        <v>0.418981495493199</v>
+        <v>0.3749514063317037</v>
       </c>
       <c r="H23">
-        <v>0.5595492321877771</v>
+        <v>0.266372778403948</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6291204166690534</v>
+        <v>1.820985004130875</v>
       </c>
       <c r="L23">
-        <v>0.1236895278748023</v>
+        <v>0.2752855422491791</v>
       </c>
       <c r="M23">
-        <v>0.2062338952080083</v>
+        <v>0.3143775269518514</v>
       </c>
       <c r="N23">
-        <v>1.831259403452762</v>
+        <v>0.7782723170503267</v>
       </c>
       <c r="O23">
-        <v>1.905714896551501</v>
+        <v>1.30346819342256</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9811695988517215</v>
+        <v>1.112750339854387</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03572530676881058</v>
+        <v>0.09487024720942117</v>
       </c>
       <c r="E24">
-        <v>0.4358124385962485</v>
+        <v>0.1671522454896825</v>
       </c>
       <c r="F24">
-        <v>0.5803393819387637</v>
+        <v>0.4768899828528887</v>
       </c>
       <c r="G24">
-        <v>0.414659487122691</v>
+        <v>0.3388480230326394</v>
       </c>
       <c r="H24">
-        <v>0.5621056323333136</v>
+        <v>0.2569950456621513</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5552536947616886</v>
+        <v>1.591220228514715</v>
       </c>
       <c r="L24">
-        <v>0.11275879772667</v>
+        <v>0.2355061563914802</v>
       </c>
       <c r="M24">
-        <v>0.1953093842326687</v>
+        <v>0.2715734823139684</v>
       </c>
       <c r="N24">
-        <v>1.857444905590381</v>
+        <v>0.8385839493624871</v>
       </c>
       <c r="O24">
-        <v>1.901573443565127</v>
+        <v>1.206823188940177</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9398172458850524</v>
+        <v>0.9388562019660185</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03065604685910728</v>
+        <v>0.07936167238416658</v>
       </c>
       <c r="E25">
-        <v>0.4418494878447037</v>
+        <v>0.1763643518135325</v>
       </c>
       <c r="F25">
-        <v>0.573178842696187</v>
+        <v>0.4225361523406121</v>
       </c>
       <c r="G25">
-        <v>0.4110076885581222</v>
+        <v>0.3028820016619349</v>
       </c>
       <c r="H25">
-        <v>0.565725833986626</v>
+        <v>0.2486520737147515</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4749048340966056</v>
+        <v>1.34333177126274</v>
       </c>
       <c r="L25">
-        <v>0.1010907494194981</v>
+        <v>0.1930749791177817</v>
       </c>
       <c r="M25">
-        <v>0.1838028704449215</v>
+        <v>0.2261163436347928</v>
       </c>
       <c r="N25">
-        <v>1.887888206151567</v>
+        <v>0.9083888599455214</v>
       </c>
       <c r="O25">
-        <v>1.901023818182878</v>
+        <v>1.112568984693524</v>
       </c>
     </row>
   </sheetData>
